--- a/medicine/Psychotrope/Prestige_(bière)/Prestige_(bière).xlsx
+++ b/medicine/Psychotrope/Prestige_(bière)/Prestige_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prestige_(bi%C3%A8re)</t>
+          <t>Prestige_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prestige est une marque de bière blonde de type lager produite à Port-au-Prince, Haïti par la Brasserie Nationale d'Haïti (Brana). Elle titre à 5,6 % volume alcoolique, dans une bouteille de 12 oz qui est égale à 34,1 cl.
 Prestige demeure la première et jusqu'à présent la seule bière haïtienne avec 98 % de part du marché local[réf. souhaitée].
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prestige_(bi%C3%A8re)</t>
+          <t>Prestige_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description Commerciale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur d'autocollant portant la marque est écrit[pas clair]: "Prestige est une bière profondément enracinée dans le patrimoine haïtien. C'est le témoignage d'une culture riche, un symbole d'unité et de progrès. Prestige nous offre une perspective optimiste de la vie remplie de couleurs, de rires et d'énergie positive".
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prestige_(bi%C3%A8re)</t>
+          <t>Prestige_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1976, un peu plus de deux ans après la création de la Brana, son fondateur, Michael Madsen, lance une bière légère sur le marché haïtien.
-En 2000, elle gagne la médaille d'or au World Beer Cup dans sa catégorie bière blonde allemande American-Style[1].
+En 2000, elle gagne la médaille d'or au World Beer Cup dans sa catégorie bière blonde allemande American-Style.
 En 2005, Prestige commence à être exportée vers les États-Unis. En juin  2012, à San Diego (Californie), elle remporte le prix « Gold » dans la catégorie des bières « American-Style Cream ou Ale » parmi 23 bières en compétition dans cette catégorie.
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prestige_(bi%C3%A8re)</t>
+          <t>Prestige_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Médaille d'Or en 2000 et 2012 dans sa catégorie « Bière blonde allemande American-Style »[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Médaille d'Or en 2000 et 2012 dans sa catégorie « Bière blonde allemande American-Style ».</t>
         </is>
       </c>
     </row>
